--- a/shaepes_score_dim.xlsx
+++ b/shaepes_score_dim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauli\Documents\DRC-CAT\SHAEPES\shaepes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72643D32-2FF9-44F9-AD0A-CF5B7C6EA13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB50A01-7510-4D67-8010-9FE6BE260B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,15 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$C$27:$G$33</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$14:$A$19</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$A$14:$B$19</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'Sheet 1'!$A$14:$A$19</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Sheet 1'!$A$8:$B$13</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">'Sheet 1'!$C$8:$C$13</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">'Sheet 1'!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">'Sheet 1'!$A$2:$B$7</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">'Sheet 1'!$C$1</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">'Sheet 1'!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$C$14:$C$19</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$A$14:$A$19</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$A$8:$B$13</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$C$8:$C$13</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Sheet 1'!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Sheet 1'!$A$2:$B$7</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Sheet 1'!$C$1</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Sheet 1'!$C$2:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$C$40:$G$46</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$C$1</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$D$41:$D$46</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$F$41:$F$46</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$D$41:$D$46</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$E$40</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$E$41:$E$46</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">'Sheet 1'!$D$41:$D$46</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">'Sheet 1'!$G$41:$G$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
   <si>
     <t>dimension</t>
   </si>
@@ -97,29 +88,30 @@
     <t>Security</t>
   </si>
   <si>
-    <t>Accès</t>
-  </si>
-  <si>
-    <t>Economie</t>
-  </si>
-  <si>
-    <t>Humanitaire</t>
-  </si>
-  <si>
-    <t>Politique &amp; inclusion</t>
-  </si>
-  <si>
     <t>Environment</t>
   </si>
   <si>
-    <t>Sécurité</t>
+    <t>ordre</t>
+  </si>
+  <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Political &amp; social inclusion</t>
+  </si>
+  <si>
+    <t>Political &amp; social 
+inclusion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -127,16 +119,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,16 +149,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vérification" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,7 +197,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -182,37 +208,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -270,7 +266,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -306,22 +302,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Accès</c:v>
+                  <c:v>Access</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Economie</c:v>
+                  <c:v>Economy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Humanitaire</c:v>
+                  <c:v>Humanitarian</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Politique &amp; inclusion</c:v>
+                  <c:v>Political &amp; social inclusion</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Environment</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sécurité</c:v>
+                  <c:v>Security</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -410,7 +406,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -446,22 +442,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Accès</c:v>
+                  <c:v>Access</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Economie</c:v>
+                  <c:v>Economy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Humanitaire</c:v>
+                  <c:v>Humanitarian</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Politique &amp; inclusion</c:v>
+                  <c:v>Political &amp; social inclusion</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Environment</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sécurité</c:v>
+                  <c:v>Security</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -550,7 +546,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -586,22 +582,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Accès</c:v>
+                  <c:v>Access</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Economie</c:v>
+                  <c:v>Economy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Humanitaire</c:v>
+                  <c:v>Humanitarian</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Politique &amp; inclusion</c:v>
+                  <c:v>Political &amp; social inclusion</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Environment</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sécurité</c:v>
+                  <c:v>Security</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -692,7 +688,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -708,7 +704,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="714374288"/>
@@ -742,7 +738,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -768,7 +764,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -805,7 +801,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -819,7 +815,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -856,7 +852,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -898,22 +894,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Accès</c:v>
+                  <c:v>Access</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Economie</c:v>
+                  <c:v>Economy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Humanitaire</c:v>
+                  <c:v>Humanitarian</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Politique &amp; inclusion</c:v>
+                  <c:v>Political &amp; social inclusion</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Environment</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sécurité</c:v>
+                  <c:v>Security</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -983,22 +979,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Accès</c:v>
+                  <c:v>Access</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Economie</c:v>
+                  <c:v>Economy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Humanitaire</c:v>
+                  <c:v>Humanitarian</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Politique &amp; inclusion</c:v>
+                  <c:v>Political &amp; social inclusion</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Environment</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sécurité</c:v>
+                  <c:v>Security</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1068,22 +1064,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Accès</c:v>
+                  <c:v>Access</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Economie</c:v>
+                  <c:v>Economy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Humanitaire</c:v>
+                  <c:v>Humanitarian</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Politique &amp; inclusion</c:v>
+                  <c:v>Political &amp; social inclusion</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Environment</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sécurité</c:v>
+                  <c:v>Security</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1173,7 +1169,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="939385312"/>
@@ -1232,7 +1228,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="939382912"/>
@@ -1274,7 +1270,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1311,7 +1307,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1327,10 +1323,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.13</cx:f>
+        <cx:f>_xlchart.v2.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.16</cx:f>
+        <cx:f>_xlchart.v2.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1368,7 +1364,7 @@
         <cx:series layoutId="funnel" uniqueId="{397EA9FD-86D7-468A-A619-5082391DD600}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v2.15</cx:f>
+              <cx:f>_xlchart.v2.0</cx:f>
               <cx:v>score_dim</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1378,7 +1374,7 @@
           <cx:dataId val="0"/>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="1">
+      <cx:axis id="0">
         <cx:catScaling gapWidth="0.0599999987"/>
         <cx:tickLabels/>
       </cx:axis>
@@ -1392,10 +1388,41 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.10</cx:f>
+        <cx:f>_xlchart.v2.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.12</cx:f>
+        <cx:f>_xlchart.v2.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{F795D339-3667-4868-A205-BB3F923F9810}">
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.0599999987"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.3</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1403,7 +1430,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Irumu</cx:v>
+          <cx:v>Irumu  - détail du score non pondéré</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -1423,80 +1450,27 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>Irumu</a:t>
+            <a:t>Irumu  - détail du score non pondéré</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="funnel" uniqueId="{F795D339-3667-4868-A205-BB3F923F9810}">
+        <cx:series layoutId="funnel" uniqueId="{2EF80241-842E-45B9-BD94-6FEB2B078252}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.4</cx:f>
+              <cx:v>Irumu</cx:v>
+            </cx:txData>
+          </cx:tx>
           <cx:dataLabels>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
           </cx:dataLabels>
           <cx:dataId val="0"/>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="1">
-        <cx:catScaling gapWidth="0.0599999987"/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v2.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Uvira</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Uvira</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="funnel" uniqueId="{74B6BBD2-2833-4750-A399-2E5B9BF76A73}">
-          <cx:dataLabels>
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
-          <cx:dataId val="0"/>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="1">
+      <cx:axis id="0">
         <cx:catScaling gapWidth="0.0599999987"/>
         <cx:tickLabels/>
       </cx:axis>
@@ -1632,42 +1606,8 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2688,514 +2628,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3719,7 +3151,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4220,6 +3652,514 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4274,7 +4214,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6638925" y="1038225"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:ext cx="4572000" cy="2781300"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4293,9 +4233,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4306,16 +4246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
@@ -4351,7 +4291,157 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11477625" y="1057275"/>
+              <a:off x="11188700" y="679450"/>
+              <a:ext cx="4572000" cy="2781300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992E2663-A8C6-B509-DDDD-72A62E3EBEB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>41274</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>155574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB3C2C7-37DA-390D-BCFD-D2F1A655B61D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BA8C47-FF3B-E990-7456-B16C2E719CE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9680575" y="3365500"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4371,165 +4461,15 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Chart 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB84DFB-2AD7-335E-9554-7B79B0851265}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8429625" y="4079875"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992E2663-A8C6-B509-DDDD-72A62E3EBEB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>701674</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>92074</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>387349</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>139699</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB3C2C7-37DA-390D-BCFD-D2F1A655B61D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4814,13 +4754,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4907,7 +4850,7 @@
         <v>0.69736842105263197</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4924,7 +4867,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4934,14 +4877,14 @@
       <c r="C7" s="1">
         <v>1.75</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.25</v>
       </c>
       <c r="E7">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5160,8 +5103,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3</v>
+      </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D28" s="1">
         <v>3.875</v>
@@ -5177,8 +5123,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>6</v>
+      </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D29" s="1">
         <v>3.75</v>
@@ -5195,7 +5144,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1">
         <v>2.7894736842105301</v>
@@ -5212,7 +5161,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1">
         <v>2.6</v>
@@ -5229,7 +5178,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1">
         <v>2.5</v>
@@ -5246,7 +5195,7 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1">
         <v>1.75</v>
@@ -5261,10 +5210,129 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2.2631578947368398</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2.7894736842105301</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1.9473684210526301</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3.625</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3.875</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.8333333333333299</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1.98742857142857</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C27:G33" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C28:G33">
-      <sortCondition descending="1" ref="D27:D33"/>
+  <autoFilter ref="C40:G46" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C41:G46">
+      <sortCondition ref="C40:C46"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
